--- a/PengeluaranMahad.xlsx
+++ b/PengeluaranMahad.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365"/>
+    <workbookView xWindow="360" yWindow="525" windowWidth="19815" windowHeight="7365" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="66">
   <si>
     <t>No</t>
   </si>
@@ -203,6 +204,15 @@
   </si>
   <si>
     <t>Uang Sampah</t>
+  </si>
+  <si>
+    <t>KW0865</t>
+  </si>
+  <si>
+    <t>Banin</t>
+  </si>
+  <si>
+    <t>Rapat pengajar</t>
   </si>
 </sst>
 </file>
@@ -564,7 +574,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
@@ -4674,4 +4684,3596 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H1000"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2">
+        <v>42805</v>
+      </c>
+      <c r="E2" s="3">
+        <v>500000</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A15" s="5">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A16" s="5">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A17" s="5">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A18" s="5">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="8"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A50" s="5">
+        <v>49</v>
+      </c>
+      <c r="B50" s="11"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="10"/>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A51" s="5">
+        <v>50</v>
+      </c>
+      <c r="E51" s="10"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A52" s="5">
+        <v>51</v>
+      </c>
+      <c r="E52" s="10"/>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A53" s="5">
+        <v>52</v>
+      </c>
+      <c r="E53" s="10"/>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A54" s="5">
+        <v>53</v>
+      </c>
+      <c r="E54" s="10"/>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A55" s="5">
+        <v>54</v>
+      </c>
+      <c r="E55" s="10"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A56" s="5">
+        <v>55</v>
+      </c>
+      <c r="E56" s="10"/>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A57" s="5">
+        <v>56</v>
+      </c>
+      <c r="E57" s="10"/>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A58" s="5">
+        <v>57</v>
+      </c>
+      <c r="E58" s="10"/>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A59" s="5">
+        <v>58</v>
+      </c>
+      <c r="E59" s="10"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A60" s="5">
+        <v>59</v>
+      </c>
+      <c r="E60" s="10"/>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A61" s="5">
+        <v>60</v>
+      </c>
+      <c r="E61" s="10"/>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A62" s="5">
+        <v>61</v>
+      </c>
+      <c r="E62" s="10"/>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A63" s="5">
+        <v>62</v>
+      </c>
+      <c r="E63" s="10"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A64" s="5">
+        <v>63</v>
+      </c>
+      <c r="E64" s="10"/>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A65" s="5">
+        <v>64</v>
+      </c>
+      <c r="E65" s="10"/>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A66" s="5">
+        <v>65</v>
+      </c>
+      <c r="E66" s="10"/>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A67" s="5">
+        <v>66</v>
+      </c>
+      <c r="E67" s="10"/>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A68" s="5">
+        <v>67</v>
+      </c>
+      <c r="E68" s="10"/>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A69" s="5">
+        <v>68</v>
+      </c>
+      <c r="E69" s="10"/>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A70" s="5">
+        <v>69</v>
+      </c>
+      <c r="E70" s="10"/>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A71" s="5">
+        <v>70</v>
+      </c>
+      <c r="E71" s="10"/>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A72" s="5">
+        <v>71</v>
+      </c>
+      <c r="E72" s="10"/>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A73" s="5">
+        <v>72</v>
+      </c>
+      <c r="E73" s="10"/>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A74" s="5">
+        <v>73</v>
+      </c>
+      <c r="E74" s="10"/>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A75" s="5">
+        <v>74</v>
+      </c>
+      <c r="E75" s="10"/>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A76" s="5">
+        <v>75</v>
+      </c>
+      <c r="E76" s="10"/>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A77" s="5">
+        <v>76</v>
+      </c>
+      <c r="E77" s="10"/>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A78" s="5">
+        <v>77</v>
+      </c>
+      <c r="E78" s="10"/>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A79" s="5">
+        <v>78</v>
+      </c>
+      <c r="E79" s="10"/>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A80" s="5">
+        <v>79</v>
+      </c>
+      <c r="E80" s="10"/>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A81" s="5">
+        <v>80</v>
+      </c>
+      <c r="E81" s="10"/>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A82" s="5">
+        <v>81</v>
+      </c>
+      <c r="E82" s="10"/>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A83" s="5">
+        <v>82</v>
+      </c>
+      <c r="E83" s="10"/>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A84" s="5">
+        <v>83</v>
+      </c>
+      <c r="E84" s="10"/>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A85" s="5">
+        <v>84</v>
+      </c>
+      <c r="E85" s="10"/>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A86" s="5">
+        <v>85</v>
+      </c>
+      <c r="E86" s="10"/>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E87" s="10"/>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E88" s="10"/>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E89" s="10"/>
+    </row>
+    <row r="90" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E90" s="10"/>
+    </row>
+    <row r="91" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E91" s="10"/>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E92" s="10"/>
+    </row>
+    <row r="93" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E93" s="10"/>
+    </row>
+    <row r="94" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E94" s="10"/>
+    </row>
+    <row r="95" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E95" s="10"/>
+    </row>
+    <row r="96" spans="1:5" ht="15.75" customHeight="1">
+      <c r="E96" s="10"/>
+    </row>
+    <row r="97" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E97" s="10"/>
+    </row>
+    <row r="98" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E98" s="10"/>
+    </row>
+    <row r="99" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E99" s="10"/>
+    </row>
+    <row r="100" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E100" s="10"/>
+    </row>
+    <row r="101" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E101" s="10"/>
+    </row>
+    <row r="102" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E102" s="10"/>
+    </row>
+    <row r="103" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E103" s="10"/>
+    </row>
+    <row r="104" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E104" s="10"/>
+    </row>
+    <row r="105" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E105" s="10"/>
+    </row>
+    <row r="106" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E106" s="10"/>
+    </row>
+    <row r="107" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E107" s="10"/>
+    </row>
+    <row r="108" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E108" s="10"/>
+    </row>
+    <row r="109" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E109" s="10"/>
+    </row>
+    <row r="110" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E110" s="10"/>
+    </row>
+    <row r="111" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E111" s="10"/>
+    </row>
+    <row r="112" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E112" s="10"/>
+    </row>
+    <row r="113" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E113" s="10"/>
+    </row>
+    <row r="114" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E114" s="10"/>
+    </row>
+    <row r="115" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E115" s="10"/>
+    </row>
+    <row r="116" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E116" s="10"/>
+    </row>
+    <row r="117" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E117" s="10"/>
+    </row>
+    <row r="118" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E118" s="10"/>
+    </row>
+    <row r="119" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E119" s="10"/>
+    </row>
+    <row r="120" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E120" s="10"/>
+    </row>
+    <row r="121" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E121" s="10"/>
+    </row>
+    <row r="122" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E122" s="10"/>
+    </row>
+    <row r="123" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E123" s="10"/>
+    </row>
+    <row r="124" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E124" s="10"/>
+    </row>
+    <row r="125" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E125" s="10"/>
+    </row>
+    <row r="126" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E126" s="10"/>
+    </row>
+    <row r="127" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E127" s="10"/>
+    </row>
+    <row r="128" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E128" s="10"/>
+    </row>
+    <row r="129" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E129" s="10"/>
+    </row>
+    <row r="130" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E130" s="10"/>
+    </row>
+    <row r="131" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E131" s="10"/>
+    </row>
+    <row r="132" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E132" s="10"/>
+    </row>
+    <row r="133" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E133" s="10"/>
+    </row>
+    <row r="134" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E134" s="10"/>
+    </row>
+    <row r="135" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E135" s="10"/>
+    </row>
+    <row r="136" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E136" s="10"/>
+    </row>
+    <row r="137" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E137" s="10"/>
+    </row>
+    <row r="138" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E138" s="10"/>
+    </row>
+    <row r="139" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E139" s="10"/>
+    </row>
+    <row r="140" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E140" s="10"/>
+    </row>
+    <row r="141" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E141" s="10"/>
+    </row>
+    <row r="142" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E142" s="10"/>
+    </row>
+    <row r="143" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E143" s="10"/>
+    </row>
+    <row r="144" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E144" s="10"/>
+    </row>
+    <row r="145" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E145" s="10"/>
+    </row>
+    <row r="146" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E146" s="10"/>
+    </row>
+    <row r="147" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E147" s="10"/>
+    </row>
+    <row r="148" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E148" s="10"/>
+    </row>
+    <row r="149" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E149" s="10"/>
+    </row>
+    <row r="150" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E150" s="10"/>
+    </row>
+    <row r="151" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E151" s="10"/>
+    </row>
+    <row r="152" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E152" s="10"/>
+    </row>
+    <row r="153" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E153" s="10"/>
+    </row>
+    <row r="154" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E154" s="10"/>
+    </row>
+    <row r="155" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E155" s="10"/>
+    </row>
+    <row r="156" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E156" s="10"/>
+    </row>
+    <row r="157" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E157" s="10"/>
+    </row>
+    <row r="158" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E158" s="10"/>
+    </row>
+    <row r="159" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E159" s="10"/>
+    </row>
+    <row r="160" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E160" s="10"/>
+    </row>
+    <row r="161" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E161" s="10"/>
+    </row>
+    <row r="162" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E162" s="10"/>
+    </row>
+    <row r="163" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E163" s="10"/>
+    </row>
+    <row r="164" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E164" s="10"/>
+    </row>
+    <row r="165" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E165" s="10"/>
+    </row>
+    <row r="166" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E166" s="10"/>
+    </row>
+    <row r="167" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E167" s="10"/>
+    </row>
+    <row r="168" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E168" s="10"/>
+    </row>
+    <row r="169" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E169" s="10"/>
+    </row>
+    <row r="170" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E170" s="10"/>
+    </row>
+    <row r="171" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E171" s="10"/>
+    </row>
+    <row r="172" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E172" s="10"/>
+    </row>
+    <row r="173" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E173" s="10"/>
+    </row>
+    <row r="174" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E174" s="10"/>
+    </row>
+    <row r="175" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E175" s="10"/>
+    </row>
+    <row r="176" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E176" s="10"/>
+    </row>
+    <row r="177" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E177" s="10"/>
+    </row>
+    <row r="178" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E178" s="10"/>
+    </row>
+    <row r="179" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E179" s="10"/>
+    </row>
+    <row r="180" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E180" s="10"/>
+    </row>
+    <row r="181" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E181" s="10"/>
+    </row>
+    <row r="182" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E182" s="10"/>
+    </row>
+    <row r="183" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E183" s="10"/>
+    </row>
+    <row r="184" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E184" s="10"/>
+    </row>
+    <row r="185" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E185" s="10"/>
+    </row>
+    <row r="186" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E186" s="10"/>
+    </row>
+    <row r="187" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E187" s="10"/>
+    </row>
+    <row r="188" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E188" s="10"/>
+    </row>
+    <row r="189" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E189" s="10"/>
+    </row>
+    <row r="190" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E190" s="10"/>
+    </row>
+    <row r="191" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E191" s="10"/>
+    </row>
+    <row r="192" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E192" s="10"/>
+    </row>
+    <row r="193" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E193" s="10"/>
+    </row>
+    <row r="194" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E194" s="10"/>
+    </row>
+    <row r="195" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E195" s="10"/>
+    </row>
+    <row r="196" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E196" s="10"/>
+    </row>
+    <row r="197" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E197" s="10"/>
+    </row>
+    <row r="198" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E198" s="10"/>
+    </row>
+    <row r="199" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E199" s="10"/>
+    </row>
+    <row r="200" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E200" s="10"/>
+    </row>
+    <row r="201" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E201" s="10"/>
+    </row>
+    <row r="202" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E202" s="10"/>
+    </row>
+    <row r="203" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E203" s="10"/>
+    </row>
+    <row r="204" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E204" s="10"/>
+    </row>
+    <row r="205" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E205" s="10"/>
+    </row>
+    <row r="206" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E206" s="10"/>
+    </row>
+    <row r="207" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E207" s="10"/>
+    </row>
+    <row r="208" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E208" s="10"/>
+    </row>
+    <row r="209" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E209" s="10"/>
+    </row>
+    <row r="210" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E210" s="10"/>
+    </row>
+    <row r="211" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E211" s="10"/>
+    </row>
+    <row r="212" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E212" s="10"/>
+    </row>
+    <row r="213" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E213" s="10"/>
+    </row>
+    <row r="214" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E214" s="10"/>
+    </row>
+    <row r="215" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E215" s="10"/>
+    </row>
+    <row r="216" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E216" s="10"/>
+    </row>
+    <row r="217" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E217" s="10"/>
+    </row>
+    <row r="218" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E218" s="10"/>
+    </row>
+    <row r="219" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E219" s="10"/>
+    </row>
+    <row r="220" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E220" s="10"/>
+    </row>
+    <row r="221" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E221" s="10"/>
+    </row>
+    <row r="222" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E222" s="10"/>
+    </row>
+    <row r="223" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E223" s="10"/>
+    </row>
+    <row r="224" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E224" s="10"/>
+    </row>
+    <row r="225" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E225" s="10"/>
+    </row>
+    <row r="226" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E226" s="10"/>
+    </row>
+    <row r="227" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E227" s="10"/>
+    </row>
+    <row r="228" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E228" s="10"/>
+    </row>
+    <row r="229" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E229" s="10"/>
+    </row>
+    <row r="230" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E230" s="10"/>
+    </row>
+    <row r="231" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E231" s="10"/>
+    </row>
+    <row r="232" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E232" s="10"/>
+    </row>
+    <row r="233" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E233" s="10"/>
+    </row>
+    <row r="234" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E234" s="10"/>
+    </row>
+    <row r="235" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E235" s="10"/>
+    </row>
+    <row r="236" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E236" s="10"/>
+    </row>
+    <row r="237" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E237" s="10"/>
+    </row>
+    <row r="238" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E238" s="10"/>
+    </row>
+    <row r="239" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E239" s="10"/>
+    </row>
+    <row r="240" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E240" s="10"/>
+    </row>
+    <row r="241" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E241" s="10"/>
+    </row>
+    <row r="242" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E242" s="10"/>
+    </row>
+    <row r="243" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E243" s="10"/>
+    </row>
+    <row r="244" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E244" s="10"/>
+    </row>
+    <row r="245" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E245" s="10"/>
+    </row>
+    <row r="246" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E246" s="10"/>
+    </row>
+    <row r="247" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E247" s="10"/>
+    </row>
+    <row r="248" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E248" s="10"/>
+    </row>
+    <row r="249" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E249" s="10"/>
+    </row>
+    <row r="250" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E250" s="10"/>
+    </row>
+    <row r="251" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E251" s="10"/>
+    </row>
+    <row r="252" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E252" s="10"/>
+    </row>
+    <row r="253" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E253" s="10"/>
+    </row>
+    <row r="254" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E254" s="10"/>
+    </row>
+    <row r="255" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E255" s="10"/>
+    </row>
+    <row r="256" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E256" s="10"/>
+    </row>
+    <row r="257" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E257" s="10"/>
+    </row>
+    <row r="258" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E258" s="10"/>
+    </row>
+    <row r="259" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E259" s="10"/>
+    </row>
+    <row r="260" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E260" s="10"/>
+    </row>
+    <row r="261" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E261" s="10"/>
+    </row>
+    <row r="262" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E262" s="10"/>
+    </row>
+    <row r="263" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E263" s="10"/>
+    </row>
+    <row r="264" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E264" s="10"/>
+    </row>
+    <row r="265" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E265" s="10"/>
+    </row>
+    <row r="266" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E266" s="10"/>
+    </row>
+    <row r="267" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E267" s="10"/>
+    </row>
+    <row r="268" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E268" s="10"/>
+    </row>
+    <row r="269" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E269" s="10"/>
+    </row>
+    <row r="270" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E270" s="10"/>
+    </row>
+    <row r="271" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E271" s="10"/>
+    </row>
+    <row r="272" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E272" s="10"/>
+    </row>
+    <row r="273" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E273" s="10"/>
+    </row>
+    <row r="274" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E274" s="10"/>
+    </row>
+    <row r="275" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E275" s="10"/>
+    </row>
+    <row r="276" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E276" s="10"/>
+    </row>
+    <row r="277" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E277" s="10"/>
+    </row>
+    <row r="278" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E278" s="10"/>
+    </row>
+    <row r="279" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E279" s="10"/>
+    </row>
+    <row r="280" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E280" s="10"/>
+    </row>
+    <row r="281" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E281" s="10"/>
+    </row>
+    <row r="282" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E282" s="10"/>
+    </row>
+    <row r="283" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E283" s="10"/>
+    </row>
+    <row r="284" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E284" s="10"/>
+    </row>
+    <row r="285" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E285" s="10"/>
+    </row>
+    <row r="286" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E286" s="10"/>
+    </row>
+    <row r="287" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E287" s="10"/>
+    </row>
+    <row r="288" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E288" s="10"/>
+    </row>
+    <row r="289" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E289" s="10"/>
+    </row>
+    <row r="290" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E290" s="10"/>
+    </row>
+    <row r="291" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E291" s="10"/>
+    </row>
+    <row r="292" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E292" s="10"/>
+    </row>
+    <row r="293" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E293" s="10"/>
+    </row>
+    <row r="294" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E294" s="10"/>
+    </row>
+    <row r="295" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E295" s="10"/>
+    </row>
+    <row r="296" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E296" s="10"/>
+    </row>
+    <row r="297" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E297" s="10"/>
+    </row>
+    <row r="298" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E298" s="10"/>
+    </row>
+    <row r="299" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E299" s="10"/>
+    </row>
+    <row r="300" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E300" s="10"/>
+    </row>
+    <row r="301" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E301" s="10"/>
+    </row>
+    <row r="302" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E302" s="10"/>
+    </row>
+    <row r="303" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E303" s="10"/>
+    </row>
+    <row r="304" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E304" s="10"/>
+    </row>
+    <row r="305" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E305" s="10"/>
+    </row>
+    <row r="306" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E306" s="10"/>
+    </row>
+    <row r="307" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E307" s="10"/>
+    </row>
+    <row r="308" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E308" s="10"/>
+    </row>
+    <row r="309" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E309" s="10"/>
+    </row>
+    <row r="310" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E310" s="10"/>
+    </row>
+    <row r="311" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E311" s="10"/>
+    </row>
+    <row r="312" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E312" s="10"/>
+    </row>
+    <row r="313" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E313" s="10"/>
+    </row>
+    <row r="314" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E314" s="10"/>
+    </row>
+    <row r="315" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E315" s="10"/>
+    </row>
+    <row r="316" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E316" s="10"/>
+    </row>
+    <row r="317" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E317" s="10"/>
+    </row>
+    <row r="318" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E318" s="10"/>
+    </row>
+    <row r="319" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E319" s="10"/>
+    </row>
+    <row r="320" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E320" s="10"/>
+    </row>
+    <row r="321" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E321" s="10"/>
+    </row>
+    <row r="322" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E322" s="10"/>
+    </row>
+    <row r="323" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E323" s="10"/>
+    </row>
+    <row r="324" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E324" s="10"/>
+    </row>
+    <row r="325" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E325" s="10"/>
+    </row>
+    <row r="326" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E326" s="10"/>
+    </row>
+    <row r="327" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E327" s="10"/>
+    </row>
+    <row r="328" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E328" s="10"/>
+    </row>
+    <row r="329" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E329" s="10"/>
+    </row>
+    <row r="330" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E330" s="10"/>
+    </row>
+    <row r="331" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E331" s="10"/>
+    </row>
+    <row r="332" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E332" s="10"/>
+    </row>
+    <row r="333" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E333" s="10"/>
+    </row>
+    <row r="334" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E334" s="10"/>
+    </row>
+    <row r="335" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E335" s="10"/>
+    </row>
+    <row r="336" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E336" s="10"/>
+    </row>
+    <row r="337" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E337" s="10"/>
+    </row>
+    <row r="338" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E338" s="10"/>
+    </row>
+    <row r="339" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E339" s="10"/>
+    </row>
+    <row r="340" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E340" s="10"/>
+    </row>
+    <row r="341" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E341" s="10"/>
+    </row>
+    <row r="342" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E342" s="10"/>
+    </row>
+    <row r="343" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E343" s="10"/>
+    </row>
+    <row r="344" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E344" s="10"/>
+    </row>
+    <row r="345" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E345" s="10"/>
+    </row>
+    <row r="346" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E346" s="10"/>
+    </row>
+    <row r="347" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E347" s="10"/>
+    </row>
+    <row r="348" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E348" s="10"/>
+    </row>
+    <row r="349" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E349" s="10"/>
+    </row>
+    <row r="350" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E350" s="10"/>
+    </row>
+    <row r="351" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E351" s="10"/>
+    </row>
+    <row r="352" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E352" s="10"/>
+    </row>
+    <row r="353" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E353" s="10"/>
+    </row>
+    <row r="354" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E354" s="10"/>
+    </row>
+    <row r="355" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E355" s="10"/>
+    </row>
+    <row r="356" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E356" s="10"/>
+    </row>
+    <row r="357" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E357" s="10"/>
+    </row>
+    <row r="358" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E358" s="10"/>
+    </row>
+    <row r="359" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E359" s="10"/>
+    </row>
+    <row r="360" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E360" s="10"/>
+    </row>
+    <row r="361" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E361" s="10"/>
+    </row>
+    <row r="362" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E362" s="10"/>
+    </row>
+    <row r="363" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E363" s="10"/>
+    </row>
+    <row r="364" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E364" s="10"/>
+    </row>
+    <row r="365" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E365" s="10"/>
+    </row>
+    <row r="366" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E366" s="10"/>
+    </row>
+    <row r="367" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E367" s="10"/>
+    </row>
+    <row r="368" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E368" s="10"/>
+    </row>
+    <row r="369" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E369" s="10"/>
+    </row>
+    <row r="370" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E370" s="10"/>
+    </row>
+    <row r="371" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E371" s="10"/>
+    </row>
+    <row r="372" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E372" s="10"/>
+    </row>
+    <row r="373" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E373" s="10"/>
+    </row>
+    <row r="374" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E374" s="10"/>
+    </row>
+    <row r="375" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E375" s="10"/>
+    </row>
+    <row r="376" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E376" s="10"/>
+    </row>
+    <row r="377" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E377" s="10"/>
+    </row>
+    <row r="378" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E378" s="10"/>
+    </row>
+    <row r="379" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E379" s="10"/>
+    </row>
+    <row r="380" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E380" s="10"/>
+    </row>
+    <row r="381" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E381" s="10"/>
+    </row>
+    <row r="382" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E382" s="10"/>
+    </row>
+    <row r="383" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E383" s="10"/>
+    </row>
+    <row r="384" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E384" s="10"/>
+    </row>
+    <row r="385" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E385" s="10"/>
+    </row>
+    <row r="386" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E386" s="10"/>
+    </row>
+    <row r="387" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E387" s="10"/>
+    </row>
+    <row r="388" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E388" s="10"/>
+    </row>
+    <row r="389" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E389" s="10"/>
+    </row>
+    <row r="390" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E390" s="10"/>
+    </row>
+    <row r="391" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E391" s="10"/>
+    </row>
+    <row r="392" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E392" s="10"/>
+    </row>
+    <row r="393" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E393" s="10"/>
+    </row>
+    <row r="394" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E394" s="10"/>
+    </row>
+    <row r="395" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E395" s="10"/>
+    </row>
+    <row r="396" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E396" s="10"/>
+    </row>
+    <row r="397" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E397" s="10"/>
+    </row>
+    <row r="398" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E398" s="10"/>
+    </row>
+    <row r="399" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E399" s="10"/>
+    </row>
+    <row r="400" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E400" s="10"/>
+    </row>
+    <row r="401" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E401" s="10"/>
+    </row>
+    <row r="402" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E402" s="10"/>
+    </row>
+    <row r="403" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E403" s="10"/>
+    </row>
+    <row r="404" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E404" s="10"/>
+    </row>
+    <row r="405" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E405" s="10"/>
+    </row>
+    <row r="406" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E406" s="10"/>
+    </row>
+    <row r="407" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E407" s="10"/>
+    </row>
+    <row r="408" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E408" s="10"/>
+    </row>
+    <row r="409" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E409" s="10"/>
+    </row>
+    <row r="410" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E410" s="10"/>
+    </row>
+    <row r="411" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E411" s="10"/>
+    </row>
+    <row r="412" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E412" s="10"/>
+    </row>
+    <row r="413" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E413" s="10"/>
+    </row>
+    <row r="414" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E414" s="10"/>
+    </row>
+    <row r="415" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E415" s="10"/>
+    </row>
+    <row r="416" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E416" s="10"/>
+    </row>
+    <row r="417" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E417" s="10"/>
+    </row>
+    <row r="418" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E418" s="10"/>
+    </row>
+    <row r="419" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E419" s="10"/>
+    </row>
+    <row r="420" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E420" s="10"/>
+    </row>
+    <row r="421" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E421" s="10"/>
+    </row>
+    <row r="422" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E422" s="10"/>
+    </row>
+    <row r="423" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E423" s="10"/>
+    </row>
+    <row r="424" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E424" s="10"/>
+    </row>
+    <row r="425" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E425" s="10"/>
+    </row>
+    <row r="426" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E426" s="10"/>
+    </row>
+    <row r="427" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E427" s="10"/>
+    </row>
+    <row r="428" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E428" s="10"/>
+    </row>
+    <row r="429" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E429" s="10"/>
+    </row>
+    <row r="430" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E430" s="10"/>
+    </row>
+    <row r="431" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E431" s="10"/>
+    </row>
+    <row r="432" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E432" s="10"/>
+    </row>
+    <row r="433" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E433" s="10"/>
+    </row>
+    <row r="434" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E434" s="10"/>
+    </row>
+    <row r="435" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E435" s="10"/>
+    </row>
+    <row r="436" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E436" s="10"/>
+    </row>
+    <row r="437" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E437" s="10"/>
+    </row>
+    <row r="438" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E438" s="10"/>
+    </row>
+    <row r="439" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E439" s="10"/>
+    </row>
+    <row r="440" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E440" s="10"/>
+    </row>
+    <row r="441" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E441" s="10"/>
+    </row>
+    <row r="442" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E442" s="10"/>
+    </row>
+    <row r="443" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E443" s="10"/>
+    </row>
+    <row r="444" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E444" s="10"/>
+    </row>
+    <row r="445" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E445" s="10"/>
+    </row>
+    <row r="446" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E446" s="10"/>
+    </row>
+    <row r="447" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E447" s="10"/>
+    </row>
+    <row r="448" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E448" s="10"/>
+    </row>
+    <row r="449" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E449" s="10"/>
+    </row>
+    <row r="450" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E450" s="10"/>
+    </row>
+    <row r="451" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E451" s="10"/>
+    </row>
+    <row r="452" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E452" s="10"/>
+    </row>
+    <row r="453" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E453" s="10"/>
+    </row>
+    <row r="454" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E454" s="10"/>
+    </row>
+    <row r="455" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E455" s="10"/>
+    </row>
+    <row r="456" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E456" s="10"/>
+    </row>
+    <row r="457" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E457" s="10"/>
+    </row>
+    <row r="458" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E458" s="10"/>
+    </row>
+    <row r="459" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E459" s="10"/>
+    </row>
+    <row r="460" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E460" s="10"/>
+    </row>
+    <row r="461" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E461" s="10"/>
+    </row>
+    <row r="462" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E462" s="10"/>
+    </row>
+    <row r="463" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E463" s="10"/>
+    </row>
+    <row r="464" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E464" s="10"/>
+    </row>
+    <row r="465" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E465" s="10"/>
+    </row>
+    <row r="466" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E466" s="10"/>
+    </row>
+    <row r="467" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E467" s="10"/>
+    </row>
+    <row r="468" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E468" s="10"/>
+    </row>
+    <row r="469" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E469" s="10"/>
+    </row>
+    <row r="470" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E470" s="10"/>
+    </row>
+    <row r="471" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E471" s="10"/>
+    </row>
+    <row r="472" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E472" s="10"/>
+    </row>
+    <row r="473" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E473" s="10"/>
+    </row>
+    <row r="474" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E474" s="10"/>
+    </row>
+    <row r="475" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E475" s="10"/>
+    </row>
+    <row r="476" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E476" s="10"/>
+    </row>
+    <row r="477" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E477" s="10"/>
+    </row>
+    <row r="478" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E478" s="10"/>
+    </row>
+    <row r="479" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E479" s="10"/>
+    </row>
+    <row r="480" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E480" s="10"/>
+    </row>
+    <row r="481" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E481" s="10"/>
+    </row>
+    <row r="482" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E482" s="10"/>
+    </row>
+    <row r="483" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E483" s="10"/>
+    </row>
+    <row r="484" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E484" s="10"/>
+    </row>
+    <row r="485" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E485" s="10"/>
+    </row>
+    <row r="486" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E486" s="10"/>
+    </row>
+    <row r="487" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E487" s="10"/>
+    </row>
+    <row r="488" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E488" s="10"/>
+    </row>
+    <row r="489" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E489" s="10"/>
+    </row>
+    <row r="490" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E490" s="10"/>
+    </row>
+    <row r="491" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E491" s="10"/>
+    </row>
+    <row r="492" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E492" s="10"/>
+    </row>
+    <row r="493" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E493" s="10"/>
+    </row>
+    <row r="494" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E494" s="10"/>
+    </row>
+    <row r="495" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E495" s="10"/>
+    </row>
+    <row r="496" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E496" s="10"/>
+    </row>
+    <row r="497" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E497" s="10"/>
+    </row>
+    <row r="498" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E498" s="10"/>
+    </row>
+    <row r="499" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E499" s="10"/>
+    </row>
+    <row r="500" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E500" s="10"/>
+    </row>
+    <row r="501" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E501" s="10"/>
+    </row>
+    <row r="502" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E502" s="10"/>
+    </row>
+    <row r="503" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E503" s="10"/>
+    </row>
+    <row r="504" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E504" s="10"/>
+    </row>
+    <row r="505" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E505" s="10"/>
+    </row>
+    <row r="506" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E506" s="10"/>
+    </row>
+    <row r="507" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E507" s="10"/>
+    </row>
+    <row r="508" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E508" s="10"/>
+    </row>
+    <row r="509" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E509" s="10"/>
+    </row>
+    <row r="510" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E510" s="10"/>
+    </row>
+    <row r="511" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E511" s="10"/>
+    </row>
+    <row r="512" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E512" s="10"/>
+    </row>
+    <row r="513" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E513" s="10"/>
+    </row>
+    <row r="514" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E514" s="10"/>
+    </row>
+    <row r="515" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E515" s="10"/>
+    </row>
+    <row r="516" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E516" s="10"/>
+    </row>
+    <row r="517" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E517" s="10"/>
+    </row>
+    <row r="518" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E518" s="10"/>
+    </row>
+    <row r="519" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E519" s="10"/>
+    </row>
+    <row r="520" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E520" s="10"/>
+    </row>
+    <row r="521" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E521" s="10"/>
+    </row>
+    <row r="522" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E522" s="10"/>
+    </row>
+    <row r="523" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E523" s="10"/>
+    </row>
+    <row r="524" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E524" s="10"/>
+    </row>
+    <row r="525" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E525" s="10"/>
+    </row>
+    <row r="526" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E526" s="10"/>
+    </row>
+    <row r="527" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E527" s="10"/>
+    </row>
+    <row r="528" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E528" s="10"/>
+    </row>
+    <row r="529" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E529" s="10"/>
+    </row>
+    <row r="530" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E530" s="10"/>
+    </row>
+    <row r="531" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E531" s="10"/>
+    </row>
+    <row r="532" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E532" s="10"/>
+    </row>
+    <row r="533" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E533" s="10"/>
+    </row>
+    <row r="534" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E534" s="10"/>
+    </row>
+    <row r="535" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E535" s="10"/>
+    </row>
+    <row r="536" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E536" s="10"/>
+    </row>
+    <row r="537" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E537" s="10"/>
+    </row>
+    <row r="538" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E538" s="10"/>
+    </row>
+    <row r="539" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E539" s="10"/>
+    </row>
+    <row r="540" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E540" s="10"/>
+    </row>
+    <row r="541" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E541" s="10"/>
+    </row>
+    <row r="542" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E542" s="10"/>
+    </row>
+    <row r="543" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E543" s="10"/>
+    </row>
+    <row r="544" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E544" s="10"/>
+    </row>
+    <row r="545" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E545" s="10"/>
+    </row>
+    <row r="546" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E546" s="10"/>
+    </row>
+    <row r="547" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E547" s="10"/>
+    </row>
+    <row r="548" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E548" s="10"/>
+    </row>
+    <row r="549" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E549" s="10"/>
+    </row>
+    <row r="550" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E550" s="10"/>
+    </row>
+    <row r="551" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E551" s="10"/>
+    </row>
+    <row r="552" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E552" s="10"/>
+    </row>
+    <row r="553" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E553" s="10"/>
+    </row>
+    <row r="554" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E554" s="10"/>
+    </row>
+    <row r="555" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E555" s="10"/>
+    </row>
+    <row r="556" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E556" s="10"/>
+    </row>
+    <row r="557" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E557" s="10"/>
+    </row>
+    <row r="558" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E558" s="10"/>
+    </row>
+    <row r="559" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E559" s="10"/>
+    </row>
+    <row r="560" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E560" s="10"/>
+    </row>
+    <row r="561" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E561" s="10"/>
+    </row>
+    <row r="562" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E562" s="10"/>
+    </row>
+    <row r="563" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E563" s="10"/>
+    </row>
+    <row r="564" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E564" s="10"/>
+    </row>
+    <row r="565" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E565" s="10"/>
+    </row>
+    <row r="566" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E566" s="10"/>
+    </row>
+    <row r="567" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E567" s="10"/>
+    </row>
+    <row r="568" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E568" s="10"/>
+    </row>
+    <row r="569" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E569" s="10"/>
+    </row>
+    <row r="570" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E570" s="10"/>
+    </row>
+    <row r="571" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E571" s="10"/>
+    </row>
+    <row r="572" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E572" s="10"/>
+    </row>
+    <row r="573" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E573" s="10"/>
+    </row>
+    <row r="574" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E574" s="10"/>
+    </row>
+    <row r="575" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E575" s="10"/>
+    </row>
+    <row r="576" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E576" s="10"/>
+    </row>
+    <row r="577" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E577" s="10"/>
+    </row>
+    <row r="578" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E578" s="10"/>
+    </row>
+    <row r="579" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E579" s="10"/>
+    </row>
+    <row r="580" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E580" s="10"/>
+    </row>
+    <row r="581" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E581" s="10"/>
+    </row>
+    <row r="582" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E582" s="10"/>
+    </row>
+    <row r="583" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E583" s="10"/>
+    </row>
+    <row r="584" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E584" s="10"/>
+    </row>
+    <row r="585" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E585" s="10"/>
+    </row>
+    <row r="586" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E586" s="10"/>
+    </row>
+    <row r="587" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E587" s="10"/>
+    </row>
+    <row r="588" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E588" s="10"/>
+    </row>
+    <row r="589" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E589" s="10"/>
+    </row>
+    <row r="590" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E590" s="10"/>
+    </row>
+    <row r="591" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E591" s="10"/>
+    </row>
+    <row r="592" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E592" s="10"/>
+    </row>
+    <row r="593" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E593" s="10"/>
+    </row>
+    <row r="594" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E594" s="10"/>
+    </row>
+    <row r="595" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E595" s="10"/>
+    </row>
+    <row r="596" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E596" s="10"/>
+    </row>
+    <row r="597" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E597" s="10"/>
+    </row>
+    <row r="598" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E598" s="10"/>
+    </row>
+    <row r="599" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E599" s="10"/>
+    </row>
+    <row r="600" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E600" s="10"/>
+    </row>
+    <row r="601" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E601" s="10"/>
+    </row>
+    <row r="602" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E602" s="10"/>
+    </row>
+    <row r="603" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E603" s="10"/>
+    </row>
+    <row r="604" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E604" s="10"/>
+    </row>
+    <row r="605" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E605" s="10"/>
+    </row>
+    <row r="606" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E606" s="10"/>
+    </row>
+    <row r="607" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E607" s="10"/>
+    </row>
+    <row r="608" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E608" s="10"/>
+    </row>
+    <row r="609" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E609" s="10"/>
+    </row>
+    <row r="610" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E610" s="10"/>
+    </row>
+    <row r="611" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E611" s="10"/>
+    </row>
+    <row r="612" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E612" s="10"/>
+    </row>
+    <row r="613" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E613" s="10"/>
+    </row>
+    <row r="614" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E614" s="10"/>
+    </row>
+    <row r="615" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E615" s="10"/>
+    </row>
+    <row r="616" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E616" s="10"/>
+    </row>
+    <row r="617" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E617" s="10"/>
+    </row>
+    <row r="618" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E618" s="10"/>
+    </row>
+    <row r="619" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E619" s="10"/>
+    </row>
+    <row r="620" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E620" s="10"/>
+    </row>
+    <row r="621" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E621" s="10"/>
+    </row>
+    <row r="622" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E622" s="10"/>
+    </row>
+    <row r="623" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E623" s="10"/>
+    </row>
+    <row r="624" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E624" s="10"/>
+    </row>
+    <row r="625" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E625" s="10"/>
+    </row>
+    <row r="626" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E626" s="10"/>
+    </row>
+    <row r="627" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E627" s="10"/>
+    </row>
+    <row r="628" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E628" s="10"/>
+    </row>
+    <row r="629" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E629" s="10"/>
+    </row>
+    <row r="630" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E630" s="10"/>
+    </row>
+    <row r="631" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E631" s="10"/>
+    </row>
+    <row r="632" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E632" s="10"/>
+    </row>
+    <row r="633" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E633" s="10"/>
+    </row>
+    <row r="634" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E634" s="10"/>
+    </row>
+    <row r="635" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E635" s="10"/>
+    </row>
+    <row r="636" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E636" s="10"/>
+    </row>
+    <row r="637" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E637" s="10"/>
+    </row>
+    <row r="638" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E638" s="10"/>
+    </row>
+    <row r="639" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E639" s="10"/>
+    </row>
+    <row r="640" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E640" s="10"/>
+    </row>
+    <row r="641" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E641" s="10"/>
+    </row>
+    <row r="642" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E642" s="10"/>
+    </row>
+    <row r="643" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E643" s="10"/>
+    </row>
+    <row r="644" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E644" s="10"/>
+    </row>
+    <row r="645" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E645" s="10"/>
+    </row>
+    <row r="646" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E646" s="10"/>
+    </row>
+    <row r="647" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E647" s="10"/>
+    </row>
+    <row r="648" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E648" s="10"/>
+    </row>
+    <row r="649" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E649" s="10"/>
+    </row>
+    <row r="650" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E650" s="10"/>
+    </row>
+    <row r="651" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E651" s="10"/>
+    </row>
+    <row r="652" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E652" s="10"/>
+    </row>
+    <row r="653" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E653" s="10"/>
+    </row>
+    <row r="654" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E654" s="10"/>
+    </row>
+    <row r="655" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E655" s="10"/>
+    </row>
+    <row r="656" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E656" s="10"/>
+    </row>
+    <row r="657" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E657" s="10"/>
+    </row>
+    <row r="658" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E658" s="10"/>
+    </row>
+    <row r="659" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E659" s="10"/>
+    </row>
+    <row r="660" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E660" s="10"/>
+    </row>
+    <row r="661" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E661" s="10"/>
+    </row>
+    <row r="662" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E662" s="10"/>
+    </row>
+    <row r="663" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E663" s="10"/>
+    </row>
+    <row r="664" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E664" s="10"/>
+    </row>
+    <row r="665" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E665" s="10"/>
+    </row>
+    <row r="666" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E666" s="10"/>
+    </row>
+    <row r="667" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E667" s="10"/>
+    </row>
+    <row r="668" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E668" s="10"/>
+    </row>
+    <row r="669" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E669" s="10"/>
+    </row>
+    <row r="670" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E670" s="10"/>
+    </row>
+    <row r="671" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E671" s="10"/>
+    </row>
+    <row r="672" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E672" s="10"/>
+    </row>
+    <row r="673" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E673" s="10"/>
+    </row>
+    <row r="674" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E674" s="10"/>
+    </row>
+    <row r="675" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E675" s="10"/>
+    </row>
+    <row r="676" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E676" s="10"/>
+    </row>
+    <row r="677" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E677" s="10"/>
+    </row>
+    <row r="678" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E678" s="10"/>
+    </row>
+    <row r="679" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E679" s="10"/>
+    </row>
+    <row r="680" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E680" s="10"/>
+    </row>
+    <row r="681" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E681" s="10"/>
+    </row>
+    <row r="682" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E682" s="10"/>
+    </row>
+    <row r="683" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E683" s="10"/>
+    </row>
+    <row r="684" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E684" s="10"/>
+    </row>
+    <row r="685" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E685" s="10"/>
+    </row>
+    <row r="686" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E686" s="10"/>
+    </row>
+    <row r="687" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E687" s="10"/>
+    </row>
+    <row r="688" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E688" s="10"/>
+    </row>
+    <row r="689" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E689" s="10"/>
+    </row>
+    <row r="690" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E690" s="10"/>
+    </row>
+    <row r="691" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E691" s="10"/>
+    </row>
+    <row r="692" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E692" s="10"/>
+    </row>
+    <row r="693" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E693" s="10"/>
+    </row>
+    <row r="694" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E694" s="10"/>
+    </row>
+    <row r="695" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E695" s="10"/>
+    </row>
+    <row r="696" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E696" s="10"/>
+    </row>
+    <row r="697" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E697" s="10"/>
+    </row>
+    <row r="698" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E698" s="10"/>
+    </row>
+    <row r="699" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E699" s="10"/>
+    </row>
+    <row r="700" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E700" s="10"/>
+    </row>
+    <row r="701" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E701" s="10"/>
+    </row>
+    <row r="702" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E702" s="10"/>
+    </row>
+    <row r="703" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E703" s="10"/>
+    </row>
+    <row r="704" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E704" s="10"/>
+    </row>
+    <row r="705" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E705" s="10"/>
+    </row>
+    <row r="706" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E706" s="10"/>
+    </row>
+    <row r="707" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E707" s="10"/>
+    </row>
+    <row r="708" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E708" s="10"/>
+    </row>
+    <row r="709" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E709" s="10"/>
+    </row>
+    <row r="710" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E710" s="10"/>
+    </row>
+    <row r="711" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E711" s="10"/>
+    </row>
+    <row r="712" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E712" s="10"/>
+    </row>
+    <row r="713" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E713" s="10"/>
+    </row>
+    <row r="714" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E714" s="10"/>
+    </row>
+    <row r="715" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E715" s="10"/>
+    </row>
+    <row r="716" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E716" s="10"/>
+    </row>
+    <row r="717" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E717" s="10"/>
+    </row>
+    <row r="718" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E718" s="10"/>
+    </row>
+    <row r="719" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E719" s="10"/>
+    </row>
+    <row r="720" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E720" s="10"/>
+    </row>
+    <row r="721" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E721" s="10"/>
+    </row>
+    <row r="722" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E722" s="10"/>
+    </row>
+    <row r="723" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E723" s="10"/>
+    </row>
+    <row r="724" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E724" s="10"/>
+    </row>
+    <row r="725" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E725" s="10"/>
+    </row>
+    <row r="726" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E726" s="10"/>
+    </row>
+    <row r="727" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E727" s="10"/>
+    </row>
+    <row r="728" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E728" s="10"/>
+    </row>
+    <row r="729" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E729" s="10"/>
+    </row>
+    <row r="730" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E730" s="10"/>
+    </row>
+    <row r="731" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E731" s="10"/>
+    </row>
+    <row r="732" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E732" s="10"/>
+    </row>
+    <row r="733" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E733" s="10"/>
+    </row>
+    <row r="734" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E734" s="10"/>
+    </row>
+    <row r="735" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E735" s="10"/>
+    </row>
+    <row r="736" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E736" s="10"/>
+    </row>
+    <row r="737" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E737" s="10"/>
+    </row>
+    <row r="738" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E738" s="10"/>
+    </row>
+    <row r="739" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E739" s="10"/>
+    </row>
+    <row r="740" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E740" s="10"/>
+    </row>
+    <row r="741" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E741" s="10"/>
+    </row>
+    <row r="742" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E742" s="10"/>
+    </row>
+    <row r="743" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E743" s="10"/>
+    </row>
+    <row r="744" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E744" s="10"/>
+    </row>
+    <row r="745" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E745" s="10"/>
+    </row>
+    <row r="746" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E746" s="10"/>
+    </row>
+    <row r="747" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E747" s="10"/>
+    </row>
+    <row r="748" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E748" s="10"/>
+    </row>
+    <row r="749" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E749" s="10"/>
+    </row>
+    <row r="750" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E750" s="10"/>
+    </row>
+    <row r="751" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E751" s="10"/>
+    </row>
+    <row r="752" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E752" s="10"/>
+    </row>
+    <row r="753" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E753" s="10"/>
+    </row>
+    <row r="754" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E754" s="10"/>
+    </row>
+    <row r="755" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E755" s="10"/>
+    </row>
+    <row r="756" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E756" s="10"/>
+    </row>
+    <row r="757" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E757" s="10"/>
+    </row>
+    <row r="758" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E758" s="10"/>
+    </row>
+    <row r="759" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E759" s="10"/>
+    </row>
+    <row r="760" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E760" s="10"/>
+    </row>
+    <row r="761" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E761" s="10"/>
+    </row>
+    <row r="762" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E762" s="10"/>
+    </row>
+    <row r="763" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E763" s="10"/>
+    </row>
+    <row r="764" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E764" s="10"/>
+    </row>
+    <row r="765" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E765" s="10"/>
+    </row>
+    <row r="766" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E766" s="10"/>
+    </row>
+    <row r="767" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E767" s="10"/>
+    </row>
+    <row r="768" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E768" s="10"/>
+    </row>
+    <row r="769" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E769" s="10"/>
+    </row>
+    <row r="770" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E770" s="10"/>
+    </row>
+    <row r="771" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E771" s="10"/>
+    </row>
+    <row r="772" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E772" s="10"/>
+    </row>
+    <row r="773" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E773" s="10"/>
+    </row>
+    <row r="774" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E774" s="10"/>
+    </row>
+    <row r="775" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E775" s="10"/>
+    </row>
+    <row r="776" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E776" s="10"/>
+    </row>
+    <row r="777" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E777" s="10"/>
+    </row>
+    <row r="778" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E778" s="10"/>
+    </row>
+    <row r="779" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E779" s="10"/>
+    </row>
+    <row r="780" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E780" s="10"/>
+    </row>
+    <row r="781" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E781" s="10"/>
+    </row>
+    <row r="782" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E782" s="10"/>
+    </row>
+    <row r="783" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E783" s="10"/>
+    </row>
+    <row r="784" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E784" s="10"/>
+    </row>
+    <row r="785" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E785" s="10"/>
+    </row>
+    <row r="786" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E786" s="10"/>
+    </row>
+    <row r="787" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E787" s="10"/>
+    </row>
+    <row r="788" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E788" s="10"/>
+    </row>
+    <row r="789" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E789" s="10"/>
+    </row>
+    <row r="790" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E790" s="10"/>
+    </row>
+    <row r="791" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E791" s="10"/>
+    </row>
+    <row r="792" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E792" s="10"/>
+    </row>
+    <row r="793" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E793" s="10"/>
+    </row>
+    <row r="794" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E794" s="10"/>
+    </row>
+    <row r="795" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E795" s="10"/>
+    </row>
+    <row r="796" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E796" s="10"/>
+    </row>
+    <row r="797" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E797" s="10"/>
+    </row>
+    <row r="798" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E798" s="10"/>
+    </row>
+    <row r="799" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E799" s="10"/>
+    </row>
+    <row r="800" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E800" s="10"/>
+    </row>
+    <row r="801" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E801" s="10"/>
+    </row>
+    <row r="802" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E802" s="10"/>
+    </row>
+    <row r="803" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E803" s="10"/>
+    </row>
+    <row r="804" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E804" s="10"/>
+    </row>
+    <row r="805" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E805" s="10"/>
+    </row>
+    <row r="806" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E806" s="10"/>
+    </row>
+    <row r="807" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E807" s="10"/>
+    </row>
+    <row r="808" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E808" s="10"/>
+    </row>
+    <row r="809" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E809" s="10"/>
+    </row>
+    <row r="810" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E810" s="10"/>
+    </row>
+    <row r="811" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E811" s="10"/>
+    </row>
+    <row r="812" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E812" s="10"/>
+    </row>
+    <row r="813" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E813" s="10"/>
+    </row>
+    <row r="814" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E814" s="10"/>
+    </row>
+    <row r="815" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E815" s="10"/>
+    </row>
+    <row r="816" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E816" s="10"/>
+    </row>
+    <row r="817" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E817" s="10"/>
+    </row>
+    <row r="818" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E818" s="10"/>
+    </row>
+    <row r="819" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E819" s="10"/>
+    </row>
+    <row r="820" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E820" s="10"/>
+    </row>
+    <row r="821" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E821" s="10"/>
+    </row>
+    <row r="822" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E822" s="10"/>
+    </row>
+    <row r="823" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E823" s="10"/>
+    </row>
+    <row r="824" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E824" s="10"/>
+    </row>
+    <row r="825" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E825" s="10"/>
+    </row>
+    <row r="826" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E826" s="10"/>
+    </row>
+    <row r="827" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E827" s="10"/>
+    </row>
+    <row r="828" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E828" s="10"/>
+    </row>
+    <row r="829" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E829" s="10"/>
+    </row>
+    <row r="830" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E830" s="10"/>
+    </row>
+    <row r="831" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E831" s="10"/>
+    </row>
+    <row r="832" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E832" s="10"/>
+    </row>
+    <row r="833" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E833" s="10"/>
+    </row>
+    <row r="834" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E834" s="10"/>
+    </row>
+    <row r="835" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E835" s="10"/>
+    </row>
+    <row r="836" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E836" s="10"/>
+    </row>
+    <row r="837" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E837" s="10"/>
+    </row>
+    <row r="838" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E838" s="10"/>
+    </row>
+    <row r="839" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E839" s="10"/>
+    </row>
+    <row r="840" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E840" s="10"/>
+    </row>
+    <row r="841" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E841" s="10"/>
+    </row>
+    <row r="842" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E842" s="10"/>
+    </row>
+    <row r="843" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E843" s="10"/>
+    </row>
+    <row r="844" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E844" s="10"/>
+    </row>
+    <row r="845" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E845" s="10"/>
+    </row>
+    <row r="846" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E846" s="10"/>
+    </row>
+    <row r="847" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E847" s="10"/>
+    </row>
+    <row r="848" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E848" s="10"/>
+    </row>
+    <row r="849" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E849" s="10"/>
+    </row>
+    <row r="850" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E850" s="10"/>
+    </row>
+    <row r="851" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E851" s="10"/>
+    </row>
+    <row r="852" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E852" s="10"/>
+    </row>
+    <row r="853" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E853" s="10"/>
+    </row>
+    <row r="854" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E854" s="10"/>
+    </row>
+    <row r="855" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E855" s="10"/>
+    </row>
+    <row r="856" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E856" s="10"/>
+    </row>
+    <row r="857" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E857" s="10"/>
+    </row>
+    <row r="858" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E858" s="10"/>
+    </row>
+    <row r="859" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E859" s="10"/>
+    </row>
+    <row r="860" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E860" s="10"/>
+    </row>
+    <row r="861" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E861" s="10"/>
+    </row>
+    <row r="862" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E862" s="10"/>
+    </row>
+    <row r="863" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E863" s="10"/>
+    </row>
+    <row r="864" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E864" s="10"/>
+    </row>
+    <row r="865" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E865" s="10"/>
+    </row>
+    <row r="866" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E866" s="10"/>
+    </row>
+    <row r="867" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E867" s="10"/>
+    </row>
+    <row r="868" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E868" s="10"/>
+    </row>
+    <row r="869" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E869" s="10"/>
+    </row>
+    <row r="870" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E870" s="10"/>
+    </row>
+    <row r="871" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E871" s="10"/>
+    </row>
+    <row r="872" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E872" s="10"/>
+    </row>
+    <row r="873" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E873" s="10"/>
+    </row>
+    <row r="874" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E874" s="10"/>
+    </row>
+    <row r="875" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E875" s="10"/>
+    </row>
+    <row r="876" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E876" s="10"/>
+    </row>
+    <row r="877" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E877" s="10"/>
+    </row>
+    <row r="878" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E878" s="10"/>
+    </row>
+    <row r="879" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E879" s="10"/>
+    </row>
+    <row r="880" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E880" s="10"/>
+    </row>
+    <row r="881" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E881" s="10"/>
+    </row>
+    <row r="882" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E882" s="10"/>
+    </row>
+    <row r="883" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E883" s="10"/>
+    </row>
+    <row r="884" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E884" s="10"/>
+    </row>
+    <row r="885" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E885" s="10"/>
+    </row>
+    <row r="886" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E886" s="10"/>
+    </row>
+    <row r="887" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E887" s="10"/>
+    </row>
+    <row r="888" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E888" s="10"/>
+    </row>
+    <row r="889" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E889" s="10"/>
+    </row>
+    <row r="890" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E890" s="10"/>
+    </row>
+    <row r="891" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E891" s="10"/>
+    </row>
+    <row r="892" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E892" s="10"/>
+    </row>
+    <row r="893" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E893" s="10"/>
+    </row>
+    <row r="894" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E894" s="10"/>
+    </row>
+    <row r="895" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E895" s="10"/>
+    </row>
+    <row r="896" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E896" s="10"/>
+    </row>
+    <row r="897" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E897" s="10"/>
+    </row>
+    <row r="898" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E898" s="10"/>
+    </row>
+    <row r="899" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E899" s="10"/>
+    </row>
+    <row r="900" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E900" s="10"/>
+    </row>
+    <row r="901" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E901" s="10"/>
+    </row>
+    <row r="902" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E902" s="10"/>
+    </row>
+    <row r="903" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E903" s="10"/>
+    </row>
+    <row r="904" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E904" s="10"/>
+    </row>
+    <row r="905" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E905" s="10"/>
+    </row>
+    <row r="906" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E906" s="10"/>
+    </row>
+    <row r="907" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E907" s="10"/>
+    </row>
+    <row r="908" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E908" s="10"/>
+    </row>
+    <row r="909" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E909" s="10"/>
+    </row>
+    <row r="910" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E910" s="10"/>
+    </row>
+    <row r="911" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E911" s="10"/>
+    </row>
+    <row r="912" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E912" s="10"/>
+    </row>
+    <row r="913" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E913" s="10"/>
+    </row>
+    <row r="914" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E914" s="10"/>
+    </row>
+    <row r="915" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E915" s="10"/>
+    </row>
+    <row r="916" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E916" s="10"/>
+    </row>
+    <row r="917" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E917" s="10"/>
+    </row>
+    <row r="918" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E918" s="10"/>
+    </row>
+    <row r="919" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E919" s="10"/>
+    </row>
+    <row r="920" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E920" s="10"/>
+    </row>
+    <row r="921" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E921" s="10"/>
+    </row>
+    <row r="922" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E922" s="10"/>
+    </row>
+    <row r="923" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E923" s="10"/>
+    </row>
+    <row r="924" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E924" s="10"/>
+    </row>
+    <row r="925" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E925" s="10"/>
+    </row>
+    <row r="926" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E926" s="10"/>
+    </row>
+    <row r="927" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E927" s="10"/>
+    </row>
+    <row r="928" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E928" s="10"/>
+    </row>
+    <row r="929" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E929" s="10"/>
+    </row>
+    <row r="930" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E930" s="10"/>
+    </row>
+    <row r="931" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E931" s="10"/>
+    </row>
+    <row r="932" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E932" s="10"/>
+    </row>
+    <row r="933" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E933" s="10"/>
+    </row>
+    <row r="934" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E934" s="10"/>
+    </row>
+    <row r="935" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E935" s="10"/>
+    </row>
+    <row r="936" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E936" s="10"/>
+    </row>
+    <row r="937" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E937" s="10"/>
+    </row>
+    <row r="938" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E938" s="10"/>
+    </row>
+    <row r="939" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E939" s="10"/>
+    </row>
+    <row r="940" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E940" s="10"/>
+    </row>
+    <row r="941" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E941" s="10"/>
+    </row>
+    <row r="942" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E942" s="10"/>
+    </row>
+    <row r="943" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E943" s="10"/>
+    </row>
+    <row r="944" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E944" s="10"/>
+    </row>
+    <row r="945" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E945" s="10"/>
+    </row>
+    <row r="946" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E946" s="10"/>
+    </row>
+    <row r="947" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E947" s="10"/>
+    </row>
+    <row r="948" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E948" s="10"/>
+    </row>
+    <row r="949" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E949" s="10"/>
+    </row>
+    <row r="950" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E950" s="10"/>
+    </row>
+    <row r="951" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E951" s="10"/>
+    </row>
+    <row r="952" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E952" s="10"/>
+    </row>
+    <row r="953" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E953" s="10"/>
+    </row>
+    <row r="954" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E954" s="10"/>
+    </row>
+    <row r="955" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E955" s="10"/>
+    </row>
+    <row r="956" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E956" s="10"/>
+    </row>
+    <row r="957" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E957" s="10"/>
+    </row>
+    <row r="958" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E958" s="10"/>
+    </row>
+    <row r="959" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E959" s="10"/>
+    </row>
+    <row r="960" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E960" s="10"/>
+    </row>
+    <row r="961" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E961" s="10"/>
+    </row>
+    <row r="962" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E962" s="10"/>
+    </row>
+    <row r="963" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E963" s="10"/>
+    </row>
+    <row r="964" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E964" s="10"/>
+    </row>
+    <row r="965" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E965" s="10"/>
+    </row>
+    <row r="966" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E966" s="10"/>
+    </row>
+    <row r="967" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E967" s="10"/>
+    </row>
+    <row r="968" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E968" s="10"/>
+    </row>
+    <row r="969" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E969" s="10"/>
+    </row>
+    <row r="970" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E970" s="10"/>
+    </row>
+    <row r="971" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E971" s="10"/>
+    </row>
+    <row r="972" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E972" s="10"/>
+    </row>
+    <row r="973" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E973" s="10"/>
+    </row>
+    <row r="974" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E974" s="10"/>
+    </row>
+    <row r="975" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E975" s="10"/>
+    </row>
+    <row r="976" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E976" s="10"/>
+    </row>
+    <row r="977" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E977" s="10"/>
+    </row>
+    <row r="978" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E978" s="10"/>
+    </row>
+    <row r="979" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E979" s="10"/>
+    </row>
+    <row r="980" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E980" s="10"/>
+    </row>
+    <row r="981" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E981" s="10"/>
+    </row>
+    <row r="982" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E982" s="10"/>
+    </row>
+    <row r="983" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E983" s="10"/>
+    </row>
+    <row r="984" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E984" s="10"/>
+    </row>
+    <row r="985" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E985" s="10"/>
+    </row>
+    <row r="986" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E986" s="10"/>
+    </row>
+    <row r="987" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E987" s="10"/>
+    </row>
+    <row r="988" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E988" s="10"/>
+    </row>
+    <row r="989" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E989" s="10"/>
+    </row>
+    <row r="990" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E990" s="10"/>
+    </row>
+    <row r="991" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E991" s="10"/>
+    </row>
+    <row r="992" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E992" s="10"/>
+    </row>
+    <row r="993" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E993" s="10"/>
+    </row>
+    <row r="994" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E994" s="10"/>
+    </row>
+    <row r="995" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E995" s="10"/>
+    </row>
+    <row r="996" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E996" s="10"/>
+    </row>
+    <row r="997" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E997" s="10"/>
+    </row>
+    <row r="998" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E998" s="10"/>
+    </row>
+    <row r="999" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E999" s="10"/>
+    </row>
+    <row r="1000" spans="5:5" ht="15.75" customHeight="1">
+      <c r="E1000" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PengeluaranMahad.xlsx
+++ b/PengeluaranMahad.xlsx
@@ -212,7 +212,7 @@
     <t>Banin</t>
   </si>
   <si>
-    <t>Rapat pengajar</t>
+    <t>DAMIU</t>
   </si>
 </sst>
 </file>

--- a/PengeluaranMahad.xlsx
+++ b/PengeluaranMahad.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="19890" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>No</t>
   </si>
@@ -215,7 +215,7 @@
     <t>DAMIU</t>
   </si>
   <si>
-    <t>KW920</t>
+    <t>KW0920</t>
   </si>
   <si>
     <t>Parkir Jumatan</t>
@@ -226,6 +226,9 @@
   <si>
     <t>Bendum</t>
   </si>
+  <si>
+    <t>KW0949</t>
+  </si>
 </sst>
 </file>
 
@@ -233,10 +236,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -252,6 +255,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -259,7 +269,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,15 +291,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -304,15 +307,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -326,11 +339,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -341,17 +361,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,37 +392,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -411,13 +414,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,7 +498,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -441,19 +510,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,67 +528,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,55 +552,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,15 +664,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -702,151 +696,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5267,7 +5270,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
@@ -5306,7 +5309,7 @@
         <v>63</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2">
         <v>42805</v>
@@ -5347,16 +5350,31 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:7">
+    <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
+        <v>42833</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1560000</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="1">

--- a/PengeluaranMahad.xlsx
+++ b/PengeluaranMahad.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="19890" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -235,11 +235,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -255,7 +255,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,12 +294,89 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,115 +391,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -414,7 +414,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,7 +468,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,97 +582,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,61 +594,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,32 +608,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,7 +621,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,22 +641,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -700,156 +674,182 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -858,7 +858,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -924,6 +924,11 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1210,12 +1215,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
@@ -2448,6 +2453,7 @@
       <c r="A75" s="5">
         <v>74</v>
       </c>
+      <c r="B75"/>
       <c r="E75" s="10"/>
     </row>
     <row r="76" customHeight="1" spans="1:5">
@@ -5265,11 +5271,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
